--- a/2023-5-5_productivity_blister_pack_2_workers.xlsx
+++ b/2023-5-5_productivity_blister_pack_2_workers.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10:59</t>
+          <t>11:07</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
